--- a/data/142/STANOR/09174 Wages and salaries employment and productivity by industry contents and year.xlsx
+++ b/data/142/STANOR/09174 Wages and salaries employment and productivity by industry contents and year.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <x:si>
     <x:t>09174: Wages and salaries, employment and productivity by industry, contents and year</x:t>
   </x:si>
@@ -172,6 +172,9 @@
     <x:t>2020</x:t>
   </x:si>
   <x:si>
+    <x:t>2021</x:t>
+  </x:si>
+  <x:si>
     <x:t>Total industry</x:t>
   </x:si>
   <x:si>
@@ -331,13 +334,13 @@
     <x:t>Figures from 2020 onwards are preliminary.</x:t>
   </x:si>
   <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Total hours worked for employees and self-employed (million workhours):</x:t>
   </x:si>
   <x:si>
-    <x:t>20211119 08:00</x:t>
+    <x:t>20220216 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -781,22 +784,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:BA95"/>
+  <x:dimension ref="A1:BB95"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="53" width="7.680625" style="0" customWidth="1"/>
+    <x:col min="1" max="54" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:53">
+    <x:row r="1" spans="1:54">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:53">
+    <x:row r="3" spans="1:54">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -950,13 +952,16 @@
       <x:c r="BA3" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
+      <x:c r="BB3" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:53">
+    <x:row r="4" spans="1:54">
       <x:c r="A4" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C4" s="3" t="n">
         <x:v>2952.8</x:v>
@@ -1111,13 +1116,16 @@
       <x:c r="BA4" s="3" t="n">
         <x:v>3939.1</x:v>
       </x:c>
+      <x:c r="BB4" s="3" t="n">
+        <x:v>4034.5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="5" spans="1:53">
+    <x:row r="5" spans="1:54">
       <x:c r="A5" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
         <x:v>54</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>53</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>395.4</x:v>
@@ -1272,13 +1280,16 @@
       <x:c r="BA5" s="3" t="n">
         <x:v>80.7</x:v>
       </x:c>
+      <x:c r="BB5" s="3" t="n">
+        <x:v>80.1</x:v>
+      </x:c>
     </x:row>
-    <x:row r="6" spans="1:53">
+    <x:row r="6" spans="1:54">
       <x:c r="A6" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>64.5</x:v>
@@ -1433,13 +1444,16 @@
       <x:c r="BA6" s="3" t="n">
         <x:v>34.3</x:v>
       </x:c>
+      <x:c r="BB6" s="3" t="n">
+        <x:v>36</x:v>
+      </x:c>
     </x:row>
-    <x:row r="7" spans="1:53">
+    <x:row r="7" spans="1:54">
       <x:c r="A7" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
         <x:v>17</x:v>
@@ -1594,13 +1608,16 @@
       <x:c r="BA7" s="3" t="n">
         <x:v>7.2</x:v>
       </x:c>
+      <x:c r="BB7" s="3" t="n">
+        <x:v>7.3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="8" spans="1:53">
+    <x:row r="8" spans="1:54">
       <x:c r="A8" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C8" s="3" t="n">
         <x:v>0</x:v>
@@ -1755,13 +1772,16 @@
       <x:c r="BA8" s="3" t="n">
         <x:v>91</x:v>
       </x:c>
+      <x:c r="BB8" s="3" t="n">
+        <x:v>92.9</x:v>
+      </x:c>
     </x:row>
-    <x:row r="9" spans="1:53">
+    <x:row r="9" spans="1:54">
       <x:c r="A9" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C9" s="3" t="n">
         <x:v>0</x:v>
@@ -1916,13 +1936,16 @@
       <x:c r="BA9" s="3" t="n">
         <x:v>38.6</x:v>
       </x:c>
+      <x:c r="BB9" s="3" t="n">
+        <x:v>38.9</x:v>
+      </x:c>
     </x:row>
-    <x:row r="10" spans="1:53">
+    <x:row r="10" spans="1:54">
       <x:c r="A10" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C10" s="3" t="n">
         <x:v>0</x:v>
@@ -2077,13 +2100,16 @@
       <x:c r="BA10" s="3" t="n">
         <x:v>52.4</x:v>
       </x:c>
+      <x:c r="BB10" s="3" t="n">
+        <x:v>54</x:v>
+      </x:c>
     </x:row>
-    <x:row r="11" spans="1:53">
+    <x:row r="11" spans="1:54">
       <x:c r="A11" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C11" s="3" t="n">
         <x:v>635.9</x:v>
@@ -2238,13 +2264,16 @@
       <x:c r="BA11" s="3" t="n">
         <x:v>337</x:v>
       </x:c>
+      <x:c r="BB11" s="3" t="n">
+        <x:v>340.9</x:v>
+      </x:c>
     </x:row>
-    <x:row r="12" spans="1:53">
+    <x:row r="12" spans="1:54">
       <x:c r="A12" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C12" s="3" t="n">
         <x:v>101</x:v>
@@ -2399,13 +2428,16 @@
       <x:c r="BA12" s="3" t="n">
         <x:v>74.8</x:v>
       </x:c>
+      <x:c r="BB12" s="3" t="n">
+        <x:v>76.9</x:v>
+      </x:c>
     </x:row>
-    <x:row r="13" spans="1:53">
+    <x:row r="13" spans="1:54">
       <x:c r="A13" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C13" s="3" t="n">
         <x:v>73.2</x:v>
@@ -2560,13 +2592,16 @@
       <x:c r="BA13" s="3" t="n">
         <x:v>55.8</x:v>
       </x:c>
+      <x:c r="BB13" s="3" t="n">
+        <x:v>56.8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="14" spans="1:53">
+    <x:row r="14" spans="1:54">
       <x:c r="A14" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C14" s="3" t="n">
         <x:v>27.7</x:v>
@@ -2721,13 +2756,16 @@
       <x:c r="BA14" s="3" t="n">
         <x:v>19</x:v>
       </x:c>
+      <x:c r="BB14" s="3" t="n">
+        <x:v>20.1</x:v>
+      </x:c>
     </x:row>
-    <x:row r="15" spans="1:53">
+    <x:row r="15" spans="1:54">
       <x:c r="A15" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C15" s="3" t="n">
         <x:v>61.4</x:v>
@@ -2882,13 +2920,16 @@
       <x:c r="BA15" s="3" t="n">
         <x:v>6.2</x:v>
       </x:c>
+      <x:c r="BB15" s="3" t="n">
+        <x:v>6.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="16" spans="1:53">
+    <x:row r="16" spans="1:54">
       <x:c r="A16" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C16" s="3" t="n">
         <x:v>48.8</x:v>
@@ -3043,13 +3084,16 @@
       <x:c r="BA16" s="3" t="n">
         <x:v>20.2</x:v>
       </x:c>
+      <x:c r="BB16" s="3" t="n">
+        <x:v>21.1</x:v>
+      </x:c>
     </x:row>
-    <x:row r="17" spans="1:53">
+    <x:row r="17" spans="1:54">
       <x:c r="A17" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C17" s="3" t="n">
         <x:v>41.6</x:v>
@@ -3204,13 +3248,16 @@
       <x:c r="BA17" s="3" t="n">
         <x:v>4.2</x:v>
       </x:c>
+      <x:c r="BB17" s="3" t="n">
+        <x:v>4.3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="18" spans="1:53">
+    <x:row r="18" spans="1:54">
       <x:c r="A18" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C18" s="3" t="n">
         <x:v>19.1</x:v>
@@ -3365,13 +3412,16 @@
       <x:c r="BA18" s="3" t="n">
         <x:v>6</x:v>
       </x:c>
+      <x:c r="BB18" s="3" t="n">
+        <x:v>5.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="19" spans="1:53">
+    <x:row r="19" spans="1:54">
       <x:c r="A19" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C19" s="3" t="n">
         <x:v>33.6</x:v>
@@ -3526,13 +3576,16 @@
       <x:c r="BA19" s="3" t="n">
         <x:v>21</x:v>
       </x:c>
+      <x:c r="BB19" s="3" t="n">
+        <x:v>21.5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="20" spans="1:53">
+    <x:row r="20" spans="1:54">
       <x:c r="A20" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C20" s="3" t="n">
         <x:v>13.9</x:v>
@@ -3687,13 +3740,16 @@
       <x:c r="BA20" s="3" t="n">
         <x:v>9.3</x:v>
       </x:c>
+      <x:c r="BB20" s="3" t="n">
+        <x:v>9.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="21" spans="1:53">
+    <x:row r="21" spans="1:54">
       <x:c r="A21" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C21" s="3" t="n">
         <x:v>41.2</x:v>
@@ -3848,13 +3904,16 @@
       <x:c r="BA21" s="3" t="n">
         <x:v>22.6</x:v>
       </x:c>
+      <x:c r="BB21" s="3" t="n">
+        <x:v>22.8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="22" spans="1:53">
+    <x:row r="22" spans="1:54">
       <x:c r="A22" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C22" s="3" t="n">
         <x:v>40.9</x:v>
@@ -4009,13 +4068,16 @@
       <x:c r="BA22" s="3" t="n">
         <x:v>16.1</x:v>
       </x:c>
+      <x:c r="BB22" s="3" t="n">
+        <x:v>16.2</x:v>
+      </x:c>
     </x:row>
-    <x:row r="23" spans="1:53">
+    <x:row r="23" spans="1:54">
       <x:c r="A23" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C23" s="3" t="n">
         <x:v>134.5</x:v>
@@ -4170,13 +4232,16 @@
       <x:c r="BA23" s="3" t="n">
         <x:v>89.2</x:v>
       </x:c>
+      <x:c r="BB23" s="3" t="n">
+        <x:v>89.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="24" spans="1:53">
+    <x:row r="24" spans="1:54">
       <x:c r="A24" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C24" s="3" t="n">
         <x:v>58.1</x:v>
@@ -4331,13 +4396,16 @@
       <x:c r="BA24" s="3" t="n">
         <x:v>32</x:v>
       </x:c>
+      <x:c r="BB24" s="3" t="n">
+        <x:v>30.3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="25" spans="1:53">
+    <x:row r="25" spans="1:54">
       <x:c r="A25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C25" s="3" t="n">
         <x:v>30.6</x:v>
@@ -4492,13 +4560,16 @@
       <x:c r="BA25" s="3" t="n">
         <x:v>12.4</x:v>
       </x:c>
+      <x:c r="BB25" s="3" t="n">
+        <x:v>13.3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="26" spans="1:53">
+    <x:row r="26" spans="1:54">
       <x:c r="A26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C26" s="3" t="n">
         <x:v>25</x:v>
@@ -4653,13 +4724,16 @@
       <x:c r="BA26" s="3" t="n">
         <x:v>32.3</x:v>
       </x:c>
+      <x:c r="BB26" s="3" t="n">
+        <x:v>32.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="27" spans="1:53">
+    <x:row r="27" spans="1:54">
       <x:c r="A27" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C27" s="3" t="n">
         <x:v>26.4</x:v>
@@ -4814,13 +4888,16 @@
       <x:c r="BA27" s="3" t="n">
         <x:v>26.5</x:v>
       </x:c>
+      <x:c r="BB27" s="3" t="n">
+        <x:v>27.3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="28" spans="1:53">
+    <x:row r="28" spans="1:54">
       <x:c r="A28" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C28" s="3" t="n">
         <x:v>8.1</x:v>
@@ -4975,13 +5052,16 @@
       <x:c r="BA28" s="3" t="n">
         <x:v>28.3</x:v>
       </x:c>
+      <x:c r="BB28" s="3" t="n">
+        <x:v>29</x:v>
+      </x:c>
     </x:row>
-    <x:row r="29" spans="1:53">
+    <x:row r="29" spans="1:54">
       <x:c r="A29" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C29" s="3" t="n">
         <x:v>217.6</x:v>
@@ -5136,13 +5216,16 @@
       <x:c r="BA29" s="3" t="n">
         <x:v>382.3</x:v>
       </x:c>
+      <x:c r="BB29" s="3" t="n">
+        <x:v>387.2</x:v>
+      </x:c>
     </x:row>
-    <x:row r="30" spans="1:53">
+    <x:row r="30" spans="1:54">
       <x:c r="A30" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C30" s="3" t="n">
         <x:v>399.4</x:v>
@@ -5297,13 +5380,16 @@
       <x:c r="BA30" s="3" t="n">
         <x:v>436.1</x:v>
       </x:c>
+      <x:c r="BB30" s="3" t="n">
+        <x:v>447.9</x:v>
+      </x:c>
     </x:row>
-    <x:row r="31" spans="1:53">
+    <x:row r="31" spans="1:54">
       <x:c r="A31" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C31" s="3" t="n">
         <x:v>0</x:v>
@@ -5458,13 +5544,16 @@
       <x:c r="BA31" s="3" t="n">
         <x:v>0.3</x:v>
       </x:c>
+      <x:c r="BB31" s="3" t="n">
+        <x:v>0.3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="32" spans="1:53">
+    <x:row r="32" spans="1:54">
       <x:c r="A32" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C32" s="3" t="n">
         <x:v>117.9</x:v>
@@ -5619,13 +5708,16 @@
       <x:c r="BA32" s="3" t="n">
         <x:v>36.3</x:v>
       </x:c>
+      <x:c r="BB32" s="3" t="n">
+        <x:v>33.5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="33" spans="1:53">
+    <x:row r="33" spans="1:54">
       <x:c r="A33" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C33" s="3" t="n">
         <x:v>170.5</x:v>
@@ -5780,13 +5872,16 @@
       <x:c r="BA33" s="3" t="n">
         <x:v>170.8</x:v>
       </x:c>
+      <x:c r="BB33" s="3" t="n">
+        <x:v>172</x:v>
+      </x:c>
     </x:row>
-    <x:row r="34" spans="1:53">
+    <x:row r="34" spans="1:54">
       <x:c r="A34" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C34" s="3" t="n">
         <x:v>25.8</x:v>
@@ -5941,13 +6036,16 @@
       <x:c r="BA34" s="3" t="n">
         <x:v>22.8</x:v>
       </x:c>
+      <x:c r="BB34" s="3" t="n">
+        <x:v>23</x:v>
+      </x:c>
     </x:row>
-    <x:row r="35" spans="1:53">
+    <x:row r="35" spans="1:54">
       <x:c r="A35" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C35" s="3" t="n">
         <x:v>65.6</x:v>
@@ -6102,13 +6200,16 @@
       <x:c r="BA35" s="3" t="n">
         <x:v>104.7</x:v>
       </x:c>
+      <x:c r="BB35" s="3" t="n">
+        <x:v>106.5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="36" spans="1:53">
+    <x:row r="36" spans="1:54">
       <x:c r="A36" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C36" s="3" t="n">
         <x:v>64.1</x:v>
@@ -6263,13 +6364,16 @@
       <x:c r="BA36" s="3" t="n">
         <x:v>156.4</x:v>
       </x:c>
+      <x:c r="BB36" s="3" t="n">
+        <x:v>166.3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="37" spans="1:53">
+    <x:row r="37" spans="1:54">
       <x:c r="A37" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C37" s="3" t="n">
         <x:v>57.2</x:v>
@@ -6424,13 +6528,16 @@
       <x:c r="BA37" s="3" t="n">
         <x:v>75.1</x:v>
       </x:c>
+      <x:c r="BB37" s="3" t="n">
+        <x:v>77.2</x:v>
+      </x:c>
     </x:row>
-    <x:row r="38" spans="1:53">
+    <x:row r="38" spans="1:54">
       <x:c r="A38" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C38" s="3" t="n">
         <x:v>3.1</x:v>
@@ -6585,13 +6692,16 @@
       <x:c r="BA38" s="3" t="n">
         <x:v>44.3</x:v>
       </x:c>
+      <x:c r="BB38" s="3" t="n">
+        <x:v>45.4</x:v>
+      </x:c>
     </x:row>
-    <x:row r="39" spans="1:53">
+    <x:row r="39" spans="1:54">
       <x:c r="A39" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C39" s="3" t="n">
         <x:v>0</x:v>
@@ -6746,13 +6856,16 @@
       <x:c r="BA39" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="BB39" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
-    <x:row r="40" spans="1:53">
+    <x:row r="40" spans="1:54">
       <x:c r="A40" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C40" s="3" t="n">
         <x:v>42.8</x:v>
@@ -6907,13 +7020,16 @@
       <x:c r="BA40" s="3" t="n">
         <x:v>222.8</x:v>
       </x:c>
+      <x:c r="BB40" s="3" t="n">
+        <x:v>229.5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="41" spans="1:53">
+    <x:row r="41" spans="1:54">
       <x:c r="A41" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C41" s="3" t="n">
         <x:v>19.2</x:v>
@@ -7068,13 +7184,16 @@
       <x:c r="BA41" s="3" t="n">
         <x:v>175.2</x:v>
       </x:c>
+      <x:c r="BB41" s="3" t="n">
+        <x:v>178.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="42" spans="1:53">
+    <x:row r="42" spans="1:54">
       <x:c r="A42" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C42" s="3" t="n">
         <x:v>228.6</x:v>
@@ -7229,13 +7348,16 @@
       <x:c r="BA42" s="3" t="n">
         <x:v>311.2</x:v>
       </x:c>
+      <x:c r="BB42" s="3" t="n">
+        <x:v>318.2</x:v>
+      </x:c>
     </x:row>
-    <x:row r="43" spans="1:53">
+    <x:row r="43" spans="1:54">
       <x:c r="A43" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C43" s="3" t="n">
         <x:v>149.6</x:v>
@@ -7390,13 +7512,16 @@
       <x:c r="BA43" s="3" t="n">
         <x:v>315.8</x:v>
       </x:c>
+      <x:c r="BB43" s="3" t="n">
+        <x:v>320.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="44" spans="1:53">
+    <x:row r="44" spans="1:54">
       <x:c r="A44" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C44" s="3" t="n">
         <x:v>184.1</x:v>
@@ -7551,13 +7676,16 @@
       <x:c r="BA44" s="3" t="n">
         <x:v>743.4</x:v>
       </x:c>
+      <x:c r="BB44" s="3" t="n">
+        <x:v>773</x:v>
+      </x:c>
     </x:row>
-    <x:row r="45" spans="1:53">
+    <x:row r="45" spans="1:54">
       <x:c r="A45" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C45" s="3" t="n">
         <x:v>60.2</x:v>
@@ -7712,13 +7840,16 @@
       <x:c r="BA45" s="3" t="n">
         <x:v>136.5</x:v>
       </x:c>
+      <x:c r="BB45" s="3" t="n">
+        <x:v>141.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="46" spans="1:53">
+    <x:row r="46" spans="1:54">
       <x:c r="A46" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C46" s="3" t="n">
         <x:v>468.7</x:v>
@@ -7873,13 +8004,16 @@
       <x:c r="BA46" s="3" t="n">
         <x:v>1159.7</x:v>
       </x:c>
+      <x:c r="BB46" s="3" t="n">
+        <x:v>1192</x:v>
+      </x:c>
     </x:row>
-    <x:row r="47" spans="1:53">
+    <x:row r="47" spans="1:54">
       <x:c r="A47" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C47" s="3" t="n">
         <x:v>203.4</x:v>
@@ -8034,13 +8168,16 @@
       <x:c r="BA47" s="3" t="n">
         <x:v>467.2</x:v>
       </x:c>
+      <x:c r="BB47" s="3" t="n">
+        <x:v>480.5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="48" spans="1:53">
+    <x:row r="48" spans="1:54">
       <x:c r="A48" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C48" s="3" t="n">
         <x:v>99.4</x:v>
@@ -8195,13 +8332,16 @@
       <x:c r="BA48" s="3" t="n">
         <x:v>419.4</x:v>
       </x:c>
+      <x:c r="BB48" s="3" t="n">
+        <x:v>431.2</x:v>
+      </x:c>
     </x:row>
-    <x:row r="49" spans="1:53">
+    <x:row r="49" spans="1:54">
       <x:c r="A49" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C49" s="3" t="n">
         <x:v>104</x:v>
@@ -8356,13 +8496,16 @@
       <x:c r="BA49" s="3" t="n">
         <x:v>47.8</x:v>
       </x:c>
+      <x:c r="BB49" s="3" t="n">
+        <x:v>49.3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="50" spans="1:53">
+    <x:row r="50" spans="1:54">
       <x:c r="A50" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B50" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C50" s="3" t="n">
         <x:v>265.3</x:v>
@@ -8517,13 +8660,16 @@
       <x:c r="BA50" s="3" t="n">
         <x:v>692.4</x:v>
       </x:c>
+      <x:c r="BB50" s="3" t="n">
+        <x:v>711.5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="51" spans="1:53">
+    <x:row r="51" spans="1:54">
       <x:c r="A51" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B51" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C51" s="3" t="n">
         <x:v>2835</x:v>
@@ -8678,13 +8824,16 @@
       <x:c r="BA51" s="3" t="n">
         <x:v>3863.8</x:v>
       </x:c>
+      <x:c r="BB51" s="3" t="n">
+        <x:v>3961.8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="52" spans="1:53">
+    <x:row r="52" spans="1:54">
       <x:c r="A52" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B52" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C52" s="3" t="n">
         <x:v>2290.9</x:v>
@@ -8839,13 +8988,16 @@
       <x:c r="BA52" s="3" t="n">
         <x:v>2591.8</x:v>
       </x:c>
+      <x:c r="BB52" s="3" t="n">
+        <x:v>2652.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="53" spans="1:53">
+    <x:row r="53" spans="1:54">
       <x:c r="A53" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B53" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C53" s="3" t="n">
         <x:v>2408.8</x:v>
@@ -9000,13 +9152,16 @@
       <x:c r="BA53" s="3" t="n">
         <x:v>2667.1</x:v>
       </x:c>
+      <x:c r="BB53" s="3" t="n">
+        <x:v>2725.5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="54" spans="1:53">
+    <x:row r="54" spans="1:54">
       <x:c r="A54" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B54" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C54" s="3" t="n">
         <x:v>544</x:v>
@@ -9161,133 +9316,139 @@
       <x:c r="BA54" s="3" t="n">
         <x:v>1272</x:v>
       </x:c>
+      <x:c r="BB54" s="3" t="n">
+        <x:v>1309</x:v>
+      </x:c>
     </x:row>
-    <x:row r="56" spans="1:53">
+    <x:row r="56" spans="1:54">
       <x:c r="A56" s="4" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:53">
+    <x:row r="58" spans="1:54">
       <x:c r="A58" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:53">
+    <x:row r="59" spans="1:54">
       <x:c r="A59" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:53">
+    <x:row r="60" spans="1:54">
       <x:c r="A60" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:54">
+      <x:c r="A62" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:54">
+      <x:c r="A63" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:54">
+      <x:c r="A65" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:54">
+      <x:c r="A66" s="0" t="s">
         <x:v>107</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:53">
-      <x:c r="A62" s="0" t="s">
-        <x:v>108</x:v>
+    <x:row r="67" spans="1:54">
+      <x:c r="A67" s="0" t="s">
+        <x:v>112</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:53">
-      <x:c r="A63" s="0" t="s">
-        <x:v>109</x:v>
+    <x:row r="68" spans="1:54">
+      <x:c r="A68" s="0" t="s">
+        <x:v>113</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:53">
-      <x:c r="A65" s="0" t="s">
-        <x:v>110</x:v>
+    <x:row r="69" spans="1:54">
+      <x:c r="A69" s="0" t="s">
+        <x:v>114</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:53">
-      <x:c r="A66" s="0" t="s">
-        <x:v>106</x:v>
+    <x:row r="73" spans="1:54">
+      <x:c r="A73" s="0" t="s">
+        <x:v>115</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:53">
-      <x:c r="A67" s="0" t="s">
-        <x:v>111</x:v>
+    <x:row r="75" spans="1:54">
+      <x:c r="A75" s="0" t="s">
+        <x:v>116</x:v>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:53">
-      <x:c r="A68" s="0" t="s">
-        <x:v>112</x:v>
+    <x:row r="76" spans="1:54">
+      <x:c r="A76" s="0" t="s">
+        <x:v>107</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:53">
-      <x:c r="A69" s="0" t="s">
-        <x:v>113</x:v>
+    <x:row r="77" spans="1:54">
+      <x:c r="A77" s="0" t="s">
+        <x:v>117</x:v>
       </x:c>
     </x:row>
-    <x:row r="73" spans="1:53">
-      <x:c r="A73" s="0" t="s">
-        <x:v>114</x:v>
+    <x:row r="78" spans="1:54">
+      <x:c r="A78" s="0" t="s">
+        <x:v>118</x:v>
       </x:c>
     </x:row>
-    <x:row r="75" spans="1:53">
-      <x:c r="A75" s="0" t="s">
-        <x:v>115</x:v>
+    <x:row r="79" spans="1:54">
+      <x:c r="A79" s="0" t="s">
+        <x:v>107</x:v>
       </x:c>
     </x:row>
-    <x:row r="76" spans="1:53">
-      <x:c r="A76" s="0" t="s">
-        <x:v>106</x:v>
+    <x:row r="80" spans="1:54">
+      <x:c r="A80" s="0" t="s">
+        <x:v>119</x:v>
       </x:c>
     </x:row>
-    <x:row r="77" spans="1:53">
-      <x:c r="A77" s="0" t="s">
-        <x:v>116</x:v>
+    <x:row r="82" spans="1:54">
+      <x:c r="A82" s="0" t="s">
+        <x:v>120</x:v>
       </x:c>
     </x:row>
-    <x:row r="78" spans="1:53">
-      <x:c r="A78" s="0" t="s">
-        <x:v>117</x:v>
+    <x:row r="83" spans="1:54">
+      <x:c r="A83" s="0" t="s">
+        <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="79" spans="1:53">
-      <x:c r="A79" s="0" t="s">
-        <x:v>106</x:v>
+    <x:row r="84" spans="1:54">
+      <x:c r="A84" s="0" t="s">
+        <x:v>121</x:v>
       </x:c>
     </x:row>
-    <x:row r="80" spans="1:53">
-      <x:c r="A80" s="0" t="s">
-        <x:v>118</x:v>
+    <x:row r="91" spans="1:54">
+      <x:c r="A91" s="0" t="s">
+        <x:v>122</x:v>
       </x:c>
     </x:row>
-    <x:row r="82" spans="1:53">
-      <x:c r="A82" s="0" t="s">
-        <x:v>119</x:v>
+    <x:row r="92" spans="1:54">
+      <x:c r="A92" s="0" t="s">
+        <x:v>123</x:v>
       </x:c>
     </x:row>
-    <x:row r="83" spans="1:53">
-      <x:c r="A83" s="0" t="s">
-        <x:v>53</x:v>
+    <x:row r="94" spans="1:54">
+      <x:c r="A94" s="0" t="s">
+        <x:v>124</x:v>
       </x:c>
     </x:row>
-    <x:row r="84" spans="1:53">
-      <x:c r="A84" s="0" t="s">
-        <x:v>120</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="91" spans="1:53">
-      <x:c r="A91" s="0" t="s">
-        <x:v>121</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="92" spans="1:53">
-      <x:c r="A92" s="0" t="s">
-        <x:v>122</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="94" spans="1:53">
-      <x:c r="A94" s="0" t="s">
-        <x:v>123</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="95" spans="1:53">
+    <x:row r="95" spans="1:54">
       <x:c r="A95" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="1">
+    <x:mergeCell ref="A56:BB56"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
